--- a/mathTransformed/HMPSTT_(2015-09-20)_52_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-09-20)_52_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. P U CollegeThekkatteKundapura</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -512,6 +522,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>GHPS Irvathur KolkeKarkala</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -539,6 +554,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G C H S Moodugiliyaru KotaBrahmavara</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -566,6 +586,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHanumanthanagarPuttur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -593,6 +618,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. P U CollegeKoteshwarKundapur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -620,6 +650,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G P U C BajagoliKarkala</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -641,6 +676,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Chethana High SchoolHangarcutta</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -666,7 +706,8 @@
           <t>JAYALAXMI</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>G P U C For girls Udupi</t>
         </is>
@@ -695,6 +736,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. High School BasrurKundapur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -722,6 +768,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHejamadi Kodi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -749,6 +800,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>T G TG H P S PadukudoorKarkala</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -776,6 +832,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G P U CollegeKambadakoneKundapur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -803,6 +864,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G P U C Navanda Kundapura</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -824,6 +890,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Manipal P U College</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Manipal Udupi</t>
         </is>
       </c>
@@ -851,6 +922,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S M S P SanskritHigh School</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -878,6 +954,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Mahathma Gandhi Residential High SchoolKukkundoorKarkala</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -905,6 +986,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Janatha High SchoolHemmadyKundapur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -932,6 +1018,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S TallurKundapura</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -959,6 +1050,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Govt. P U CollegePalli Karkala</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -986,6 +1082,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S kallyaKarkala</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1013,6 +1114,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>B M M High School KuradyBrahmavara Valaya</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1040,6 +1146,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Christian High School</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1067,6 +1178,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High School KedurKundapura</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1094,6 +1210,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S VandseKundapura</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1121,6 +1242,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G P U C Padubidri</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1148,6 +1274,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H P S BaradiKarkala</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1175,6 +1306,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. High School JanuvarukatteBrahmavara Valaya</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1202,6 +1338,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. High School VandseKundapur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1229,6 +1370,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>S M S P U College Brahmavara</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1256,6 +1402,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. J R College NavundaKundapur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Udupi</t>
         </is>
       </c>
@@ -1283,6 +1434,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. High School KalacheYellapur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1310,6 +1466,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Govt. High School BhashiSirsi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1337,6 +1498,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H P S TargodSirsi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1364,6 +1530,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>M H P S Yellapur tq</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Sirsi Edu Dist</t>
         </is>
       </c>
@@ -1391,6 +1562,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S JagalbetJoida</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1418,6 +1594,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Janata Vidyalay DandeliHalyal</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1445,6 +1626,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>M G C M High SchoolSiddapur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Uttar kannada</t>
         </is>
       </c>
@@ -1472,6 +1658,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S ASUJoida</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1501,6 +1692,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>S G S S Hegdekatta</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Sirsi Education</t>
         </is>
       </c>
@@ -1528,6 +1724,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>M H P S BalikoppaSiddapur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1555,6 +1756,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Malandu High School DasanakoppaSirsi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1582,6 +1788,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G M H P S ChigalliMundagodSirsi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1611,6 +1822,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>S S V H High School HeggarniSidapur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1638,6 +1854,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Shree Guru Nityanand High SchoolK K halliHaliyalSirsi Education</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Uttar Kannda</t>
         </is>
       </c>
@@ -1665,6 +1886,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>R V H S ItagiSiddappur</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1689,7 +1915,8 @@
           <t>RAVIKUMARA H R</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t xml:space="preserve">RAVIKUMARA H </t>
         </is>
@@ -1707,6 +1934,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>G H S JiddiSiddapur</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Sirsi</t>
         </is>
@@ -1737,6 +1969,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>A U H S DandeliHaliyal</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1764,6 +2001,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Janata Vidyalaya KulveBaroor</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1791,6 +2033,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Govt. High School ChibbalageriHaliyalSirsi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1818,6 +2065,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S MalavalliYellapurSirsi Education</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Uttar Kannada</t>
         </is>
       </c>
@@ -1845,6 +2097,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Nrupatunga Memorial High School GudnapurHigh School</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Sirsi</t>
         </is>
       </c>
@@ -1871,6 +2128,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>Govt. Girls High SchoolJavaligalliHaliyalSirsi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Uttar Kannada</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-09-20)_52_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-09-20)_52_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,10 +706,9 @@
           <t>JAYALAXMI</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>G P U C For girls Udupi</t>
+          <t>Udupi</t>
         </is>
       </c>
     </row>
@@ -895,7 +894,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Manipal Udupi</t>
+          <t>Udupi</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1438,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1470,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1502,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1534,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sirsi Edu Dist</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1566,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1598,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1630,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Uttar kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1662,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1696,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sirsi Education</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1728,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1760,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1792,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1826,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1858,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Uttar Kannda</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1890,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1914,6 @@
           <t>RAVIKUMARA H R</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t xml:space="preserve">RAVIKUMARA H </t>
@@ -1940,7 +1938,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1972,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2004,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2036,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2068,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2100,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sirsi</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2132,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Uttar Kannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
